--- a/Airy beam information.xlsx
+++ b/Airy beam information.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86188\Desktop\Response_MTT\Response_MTT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Airy TMTT\major revision\Response_MTT\Response_MTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA01A2A-8EF2-4AFD-A0B6-6115D94A085A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834978DF-4F81-4468-8025-3FF7BD99D681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Height information" sheetId="1" r:id="rId1"/>
-    <sheet name="Fourier phase" sheetId="2" r:id="rId2"/>
-    <sheet name="Cubic phase" sheetId="3" r:id="rId3"/>
-    <sheet name="Total phase" sheetId="4" r:id="rId4"/>
+    <sheet name="Height information (mm)" sheetId="1" r:id="rId1"/>
+    <sheet name="Fourier phase (rad)" sheetId="2" r:id="rId2"/>
+    <sheet name="Cubic phase (rad)" sheetId="3" r:id="rId3"/>
+    <sheet name="Total phase (rad)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -380,12 +380,12 @@
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.9296875" customWidth="1"/>
+    <col min="1" max="1" width="10.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" s="1" customFormat="1" ht="35.549999999999997" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:62" s="1" customFormat="1" ht="35.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -573,7 +573,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>-150</v>
       </c>
@@ -761,7 +761,7 @@
         <v>5.7337561578650798</v>
       </c>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>-145</v>
       </c>
@@ -949,7 +949,7 @@
         <v>7.7687482048625602</v>
       </c>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>-140</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>4.0561661587055102</v>
       </c>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>-135</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>6.5375090970501102</v>
       </c>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>-130</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>3.2582366872159798</v>
       </c>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>-125</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>6.1598480068592902</v>
       </c>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>-120</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>3.2878027232996798</v>
       </c>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>-115</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>6.5835999141933002</v>
       </c>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>-110</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>4.09269924685979</v>
       </c>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>-105</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>7.7565997989553201</v>
       </c>
     </row>
-    <row r="12" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>-100</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>5.6207612377995</v>
       </c>
     </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>-95</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>3.6526727884643702</v>
       </c>
     </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>-90</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>7.8198236760219801</v>
       </c>
     </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>-85</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>6.1676735677919403</v>
       </c>
     </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>-80</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>4.6637116888462904</v>
       </c>
     </row>
-    <row r="17" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>-75</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>3.3014174116729298</v>
       </c>
     </row>
-    <row r="18" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>-70</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>2.0742701087597499</v>
       </c>
     </row>
-    <row r="19" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>-65</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v>6.9497590051787803</v>
       </c>
     </row>
-    <row r="20" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>-60</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>5.9733437682496602</v>
       </c>
     </row>
-    <row r="21" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>-55</v>
       </c>
@@ -4333,7 +4333,7 @@
         <v>5.1125136230444097</v>
       </c>
     </row>
-    <row r="22" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>-50</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>4.3607479420509403</v>
       </c>
     </row>
-    <row r="23" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>-45</v>
       </c>
@@ -4709,7 +4709,7 @@
         <v>3.71152609775715</v>
       </c>
     </row>
-    <row r="24" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>-40</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>3.1583274626509099</v>
       </c>
     </row>
-    <row r="25" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>-35</v>
       </c>
@@ -5085,7 +5085,7 @@
         <v>2.6946314092201602</v>
       </c>
     </row>
-    <row r="26" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>-30</v>
       </c>
@@ -5273,7 +5273,7 @@
         <v>2.3139173099527599</v>
       </c>
     </row>
-    <row r="27" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>-25</v>
       </c>
@@ -5461,7 +5461,7 @@
         <v>2.00966453733664</v>
       </c>
     </row>
-    <row r="28" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>-20</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>7.7493623164437997</v>
       </c>
     </row>
-    <row r="29" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>-15</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>7.5784703145938899</v>
       </c>
     </row>
-    <row r="30" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>-10</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>7.4644777568589404</v>
       </c>
     </row>
-    <row r="31" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>-5</v>
       </c>
@@ -6213,7 +6213,7 @@
         <v>7.4008640157268397</v>
       </c>
     </row>
-    <row r="32" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>7.3811084636855</v>
       </c>
     </row>
-    <row r="33" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>5</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>7.3986904732228096</v>
       </c>
     </row>
-    <row r="34" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>10</v>
       </c>
@@ -6777,7 +6777,7 @@
         <v>7.4470894168266701</v>
       </c>
     </row>
-    <row r="35" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>15</v>
       </c>
@@ -6965,7 +6965,7 @@
         <v>7.5197846669849699</v>
       </c>
     </row>
-    <row r="36" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>20</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>7.6102555961856204</v>
       </c>
     </row>
-    <row r="37" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>25</v>
       </c>
@@ -7341,7 +7341,7 @@
         <v>7.7119815769165099</v>
       </c>
     </row>
-    <row r="38" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>30</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>7.8184419816655399</v>
       </c>
     </row>
-    <row r="39" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>35</v>
       </c>
@@ -7717,7 +7717,7 @@
         <v>7.9231161829206096</v>
       </c>
     </row>
-    <row r="40" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>40</v>
       </c>
@@ -7905,7 +7905,7 @@
         <v>2.0454737005854802</v>
       </c>
     </row>
-    <row r="41" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>45</v>
       </c>
@@ -8093,7 +8093,7 @@
         <v>2.1270136123163201</v>
       </c>
     </row>
-    <row r="42" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>50</v>
       </c>
@@ -8281,7 +8281,7 @@
         <v>2.1872054380168802</v>
       </c>
     </row>
-    <row r="43" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>55</v>
       </c>
@@ -8469,7 +8469,7 @@
         <v>2.2195285501750801</v>
       </c>
     </row>
-    <row r="44" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>60</v>
       </c>
@@ -8657,7 +8657,7 @@
         <v>2.2174623212787998</v>
       </c>
     </row>
-    <row r="45" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>65</v>
       </c>
@@ -8845,7 +8845,7 @@
         <v>2.1744861238159499</v>
       </c>
     </row>
-    <row r="46" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>70</v>
       </c>
@@ -9033,7 +9033,7 @@
         <v>2.0840793302744198</v>
       </c>
     </row>
-    <row r="47" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>75</v>
       </c>
@@ -9221,7 +9221,7 @@
         <v>7.9137311657262499</v>
       </c>
     </row>
-    <row r="48" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>80</v>
       </c>
@@ -9409,7 +9409,7 @@
         <v>7.7089012974910602</v>
       </c>
     </row>
-    <row r="49" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>85</v>
       </c>
@@ -9597,7 +9597,7 @@
         <v>7.4370789506408803</v>
       </c>
     </row>
-    <row r="50" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>90</v>
       </c>
@@ -9785,7 +9785,7 @@
         <v>7.0917434976636304</v>
       </c>
     </row>
-    <row r="51" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>95</v>
       </c>
@@ -9973,7 +9973,7 @@
         <v>6.6663743110471803</v>
       </c>
     </row>
-    <row r="52" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>100</v>
       </c>
@@ -10161,7 +10161,7 @@
         <v>6.1544507632794403</v>
       </c>
     </row>
-    <row r="53" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>105</v>
       </c>
@@ -10349,7 +10349,7 @@
         <v>5.5494522268483104</v>
       </c>
     </row>
-    <row r="54" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>110</v>
       </c>
@@ -10537,7 +10537,7 @@
         <v>4.8448580742416896</v>
       </c>
     </row>
-    <row r="55" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>115</v>
       </c>
@@ -10725,7 +10725,7 @@
         <v>4.0341476779474599</v>
       </c>
     </row>
-    <row r="56" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>120</v>
       </c>
@@ -10913,7 +10913,7 @@
         <v>3.1108004104535398</v>
       </c>
     </row>
-    <row r="57" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>125</v>
       </c>
@@ -11101,7 +11101,7 @@
         <v>2.0682956442478102</v>
       </c>
     </row>
-    <row r="58" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>130</v>
       </c>
@@ -11289,7 +11289,7 @@
         <v>6.8741226044023298</v>
       </c>
     </row>
-    <row r="59" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>135</v>
       </c>
@@ -11477,7 +11477,7 @@
         <v>5.5737409582366899</v>
       </c>
     </row>
-    <row r="60" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>140</v>
       </c>
@@ -11665,7 +11665,7 @@
         <v>4.1346399308229396</v>
       </c>
     </row>
-    <row r="61" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>145</v>
       </c>
@@ -11853,7 +11853,7 @@
         <v>2.5502988946489999</v>
       </c>
     </row>
-    <row r="62" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>150</v>
       </c>
@@ -12056,12 +12056,12 @@
       <selection activeCell="B2" sqref="B2:BJ62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.9296875" customWidth="1"/>
+    <col min="1" max="1" width="10.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" s="1" customFormat="1" ht="35.549999999999997" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:62" s="1" customFormat="1" ht="35.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -12249,7 +12249,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>-150</v>
       </c>
@@ -12437,7 +12437,7 @@
         <v>3.9269908169872401</v>
       </c>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>-145</v>
       </c>
@@ -12625,7 +12625,7 @@
         <v>2.768528525976</v>
       </c>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>-140</v>
       </c>
@@ -12813,7 +12813,7 @@
         <v>1.6493361431346401</v>
       </c>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>-135</v>
       </c>
@@ -13001,7 +13001,7 @@
         <v>0.56941366846314501</v>
       </c>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>-130</v>
       </c>
@@ -13189,7 +13189,7 @@
         <v>5.8119464091411199</v>
       </c>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>-125</v>
       </c>
@@ -13377,7 +13377,7 @@
         <v>4.8105637508093704</v>
       </c>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>-120</v>
       </c>
@@ -13565,7 +13565,7 @@
         <v>3.8484510006475001</v>
       </c>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>-115</v>
       </c>
@@ -13753,7 +13753,7 @@
         <v>2.9256081586554901</v>
       </c>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>-110</v>
       </c>
@@ -13941,7 +13941,7 @@
         <v>2.0420352248333602</v>
       </c>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>-105</v>
       </c>
@@ -14129,7 +14129,7 @@
         <v>1.1977321991811101</v>
       </c>
     </row>
-    <row r="12" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>-100</v>
       </c>
@@ -14317,7 +14317,7 @@
         <v>0.39269908169872297</v>
       </c>
     </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>-95</v>
       </c>
@@ -14505,7 +14505,7 @@
         <v>5.9101211795657997</v>
       </c>
     </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>-90</v>
       </c>
@@ -14693,7 +14693,7 @@
         <v>5.1836278784231604</v>
       </c>
     </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>-85</v>
       </c>
@@ -14881,7 +14881,7 @@
         <v>4.4964044854503902</v>
       </c>
     </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>-80</v>
       </c>
@@ -15069,7 +15069,7 @@
         <v>3.8484510006474899</v>
       </c>
     </row>
-    <row r="17" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>-75</v>
       </c>
@@ -15257,7 +15257,7 @@
         <v>3.2397674240144698</v>
       </c>
     </row>
-    <row r="18" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>-70</v>
       </c>
@@ -15445,7 +15445,7 @@
         <v>2.6703537555513202</v>
       </c>
     </row>
-    <row r="19" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>-65</v>
       </c>
@@ -15633,7 +15633,7 @@
         <v>2.14020999525804</v>
       </c>
     </row>
-    <row r="20" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>-60</v>
       </c>
@@ -15821,7 +15821,7 @@
         <v>1.6493361431346401</v>
       </c>
     </row>
-    <row r="21" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>-55</v>
       </c>
@@ -16009,7 +16009,7 @@
         <v>1.1977321991811101</v>
       </c>
     </row>
-    <row r="22" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>-50</v>
       </c>
@@ -16197,7 +16197,7 @@
         <v>0.78539816339744595</v>
       </c>
     </row>
-    <row r="23" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>-45</v>
       </c>
@@ -16385,7 +16385,7 @@
         <v>0.41233403578365802</v>
       </c>
     </row>
-    <row r="24" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>-40</v>
       </c>
@@ -16573,7 +16573,7 @@
         <v>7.85398163397453E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>-35</v>
       </c>
@@ -16761,7 +16761,7 @@
         <v>6.0672008122452903</v>
       </c>
     </row>
-    <row r="26" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>-30</v>
       </c>
@@ -16949,7 +16949,7 @@
         <v>5.8119464091411199</v>
       </c>
     </row>
-    <row r="27" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>-25</v>
       </c>
@@ -17137,7 +17137,7 @@
         <v>5.5959619142068204</v>
       </c>
     </row>
-    <row r="28" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>-20</v>
       </c>
@@ -17325,7 +17325,7 @@
         <v>5.41924732744239</v>
       </c>
     </row>
-    <row r="29" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>-15</v>
       </c>
@@ -17513,7 +17513,7 @@
         <v>5.2818026488478402</v>
       </c>
     </row>
-    <row r="30" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>-10</v>
       </c>
@@ -17701,7 +17701,7 @@
         <v>5.1836278784231604</v>
       </c>
     </row>
-    <row r="31" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>-5</v>
       </c>
@@ -17889,7 +17889,7 @@
         <v>5.1247230161683497</v>
       </c>
     </row>
-    <row r="32" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0</v>
       </c>
@@ -18077,7 +18077,7 @@
         <v>5.1050880620834098</v>
       </c>
     </row>
-    <row r="33" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>5</v>
       </c>
@@ -18265,7 +18265,7 @@
         <v>5.1247230161683497</v>
       </c>
     </row>
-    <row r="34" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>10</v>
       </c>
@@ -18453,7 +18453,7 @@
         <v>5.1836278784231604</v>
       </c>
     </row>
-    <row r="35" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>15</v>
       </c>
@@ -18641,7 +18641,7 @@
         <v>5.2818026488478402</v>
       </c>
     </row>
-    <row r="36" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>20</v>
       </c>
@@ -18829,7 +18829,7 @@
         <v>5.41924732744239</v>
       </c>
     </row>
-    <row r="37" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>25</v>
       </c>
@@ -19017,7 +19017,7 @@
         <v>5.5959619142068204</v>
       </c>
     </row>
-    <row r="38" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>30</v>
       </c>
@@ -19205,7 +19205,7 @@
         <v>5.8119464091411199</v>
       </c>
     </row>
-    <row r="39" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>35</v>
       </c>
@@ -19393,7 +19393,7 @@
         <v>6.0672008122452903</v>
       </c>
     </row>
-    <row r="40" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>40</v>
       </c>
@@ -19581,7 +19581,7 @@
         <v>7.85398163397453E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>45</v>
       </c>
@@ -19769,7 +19769,7 @@
         <v>0.41233403578365802</v>
       </c>
     </row>
-    <row r="42" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>50</v>
       </c>
@@ -19957,7 +19957,7 @@
         <v>0.78539816339744895</v>
       </c>
     </row>
-    <row r="43" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>55</v>
       </c>
@@ -20145,7 +20145,7 @@
         <v>1.1977321991811101</v>
       </c>
     </row>
-    <row r="44" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>60</v>
       </c>
@@ -20333,7 +20333,7 @@
         <v>1.6493361431346401</v>
       </c>
     </row>
-    <row r="45" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>65</v>
       </c>
@@ -20521,7 +20521,7 @@
         <v>2.14020999525804</v>
       </c>
     </row>
-    <row r="46" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>70</v>
       </c>
@@ -20709,7 +20709,7 @@
         <v>2.6703537555513299</v>
       </c>
     </row>
-    <row r="47" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>75</v>
       </c>
@@ -20897,7 +20897,7 @@
         <v>3.2397674240144698</v>
       </c>
     </row>
-    <row r="48" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>80</v>
       </c>
@@ -21085,7 +21085,7 @@
         <v>3.8484510006474899</v>
       </c>
     </row>
-    <row r="49" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>85</v>
       </c>
@@ -21273,7 +21273,7 @@
         <v>4.4964044854503902</v>
       </c>
     </row>
-    <row r="50" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>90</v>
       </c>
@@ -21461,7 +21461,7 @@
         <v>5.1836278784231498</v>
       </c>
     </row>
-    <row r="51" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>95</v>
       </c>
@@ -21649,7 +21649,7 @@
         <v>5.9101211795657997</v>
       </c>
     </row>
-    <row r="52" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>100</v>
       </c>
@@ -21837,7 +21837,7 @@
         <v>0.39269908169872297</v>
       </c>
     </row>
-    <row r="53" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>105</v>
       </c>
@@ -22025,7 +22025,7 @@
         <v>1.1977321991811101</v>
       </c>
     </row>
-    <row r="54" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>110</v>
       </c>
@@ -22213,7 +22213,7 @@
         <v>2.04203522483337</v>
       </c>
     </row>
-    <row r="55" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>115</v>
       </c>
@@ -22401,7 +22401,7 @@
         <v>2.9256081586554901</v>
       </c>
     </row>
-    <row r="56" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>120</v>
       </c>
@@ -22589,7 +22589,7 @@
         <v>3.8484510006474899</v>
       </c>
     </row>
-    <row r="57" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>125</v>
       </c>
@@ -22777,7 +22777,7 @@
         <v>4.8105637508093704</v>
       </c>
     </row>
-    <row r="58" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>130</v>
       </c>
@@ -22965,7 +22965,7 @@
         <v>5.8119464091411199</v>
       </c>
     </row>
-    <row r="59" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>135</v>
       </c>
@@ -23153,7 +23153,7 @@
         <v>0.56941366846314501</v>
       </c>
     </row>
-    <row r="60" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>140</v>
       </c>
@@ -23341,7 +23341,7 @@
         <v>1.6493361431346401</v>
       </c>
     </row>
-    <row r="61" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>145</v>
       </c>
@@ -23529,7 +23529,7 @@
         <v>2.768528525976</v>
       </c>
     </row>
-    <row r="62" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>150</v>
       </c>
@@ -23732,12 +23732,12 @@
       <selection activeCell="B2" sqref="B2:BJ62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.9296875" customWidth="1"/>
+    <col min="1" max="1" width="10.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" s="1" customFormat="1" ht="35.549999999999997" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:62" s="1" customFormat="1" ht="35.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -23925,7 +23925,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>-150</v>
       </c>
@@ -24113,7 +24113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>-145</v>
       </c>
@@ -24301,7 +24301,7 @@
         <v>2.9844131664296598</v>
       </c>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>-140</v>
       </c>
@@ -24489,7 +24489,7 @@
         <v>5.76994165612291</v>
       </c>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>-135</v>
       </c>
@@ -24677,7 +24677,7 @@
         <v>2.0802582542014099</v>
       </c>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>-130</v>
       </c>
@@ -24865,7 +24865,7 @@
         <v>4.4885916673256103</v>
       </c>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>-125</v>
       </c>
@@ -25053,7 +25053,7 @@
         <v>0.43542937343758598</v>
       </c>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>-120</v>
       </c>
@@ -25241,7 +25241,7 @@
         <v>2.4940000791977601</v>
       </c>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>-115</v>
       </c>
@@ -25429,7 +25429,7 @@
         <v>4.3879765697278099</v>
       </c>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>-110</v>
       </c>
@@ -25617,7 +25617,7 @@
         <v>6.1242169373289697</v>
       </c>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>-105</v>
       </c>
@@ -25805,7 +25805,7 @@
         <v>1.42639396712293</v>
       </c>
     </row>
-    <row r="12" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>-100</v>
       </c>
@@ -25993,7 +25993,7 @@
         <v>2.8677363657701198</v>
       </c>
     </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>-95</v>
       </c>
@@ -26181,7 +26181,7 @@
         <v>4.1719169183921903</v>
       </c>
     </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>-90</v>
       </c>
@@ -26369,7 +26369,7 @@
         <v>5.3457937172904098</v>
       </c>
     </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>-85</v>
       </c>
@@ -26557,7 +26557,7 @@
         <v>0.11303954758645</v>
       </c>
     </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>-80</v>
       </c>
@@ -26745,7 +26745,7 @@
         <v>1.0468831159407299</v>
       </c>
     </row>
-    <row r="17" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>-75</v>
       </c>
@@ -26933,7 +26933,7 @@
         <v>1.8709972074749299</v>
       </c>
     </row>
-    <row r="18" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>-70</v>
       </c>
@@ -27121,7 +27121,7 @@
         <v>2.5922399144902899</v>
       </c>
     </row>
-    <row r="19" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>-65</v>
       </c>
@@ -27309,7 +27309,7 @@
         <v>3.2174693292880798</v>
       </c>
     </row>
-    <row r="20" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>-60</v>
       </c>
@@ -27497,7 +27497,7 @@
         <v>3.7535435441695402</v>
       </c>
     </row>
-    <row r="21" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>-55</v>
       </c>
@@ -27685,7 +27685,7 @@
         <v>4.2073206514359498</v>
       </c>
     </row>
-    <row r="22" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>-50</v>
       </c>
@@ -27873,7 +27873,7 @@
         <v>4.5856587433885396</v>
       </c>
     </row>
-    <row r="23" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>-45</v>
       </c>
@@ -28061,7 +28061,7 @@
         <v>4.8954159123285699</v>
       </c>
     </row>
-    <row r="24" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>-40</v>
       </c>
@@ -28249,7 +28249,7 @@
         <v>5.1434502505573096</v>
       </c>
     </row>
-    <row r="25" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>-35</v>
       </c>
@@ -28437,7 +28437,7 @@
         <v>5.3366198503760103</v>
       </c>
     </row>
-    <row r="26" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>-30</v>
       </c>
@@ -28625,7 +28625,7 @@
         <v>5.4817828040859098</v>
       </c>
     </row>
-    <row r="27" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>-25</v>
       </c>
@@ -28813,7 +28813,7 @@
         <v>5.5857972039882897</v>
       </c>
     </row>
-    <row r="28" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>-20</v>
       </c>
@@ -29001,7 +29001,7 @@
         <v>5.6555211423843801</v>
       </c>
     </row>
-    <row r="29" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>-15</v>
       </c>
@@ -29189,7 +29189,7 @@
         <v>5.6978127115754598</v>
       </c>
     </row>
-    <row r="30" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>-10</v>
       </c>
@@ -29377,7 +29377,7 @@
         <v>5.7195300038627703</v>
       </c>
     </row>
-    <row r="31" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>-5</v>
       </c>
@@ -29565,7 +29565,7 @@
         <v>5.7275311115475596</v>
       </c>
     </row>
-    <row r="32" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0</v>
       </c>
@@ -29753,7 +29753,7 @@
         <v>5.7286741269311099</v>
       </c>
     </row>
-    <row r="33" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>5</v>
       </c>
@@ -29941,7 +29941,7 @@
         <v>5.7298171423146602</v>
       </c>
     </row>
-    <row r="34" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>10</v>
       </c>
@@ -30129,7 +30129,7 @@
         <v>5.7378182499994503</v>
       </c>
     </row>
-    <row r="35" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>15</v>
       </c>
@@ -30317,7 +30317,7 @@
         <v>5.75953554228676</v>
       </c>
     </row>
-    <row r="36" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>20</v>
       </c>
@@ -30505,7 +30505,7 @@
         <v>5.8018271114778299</v>
       </c>
     </row>
-    <row r="37" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>25</v>
       </c>
@@ -30693,7 +30693,7 @@
         <v>5.8715510498739301</v>
       </c>
     </row>
-    <row r="38" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>30</v>
       </c>
@@ -30881,7 +30881,7 @@
         <v>5.9755654497763002</v>
       </c>
     </row>
-    <row r="39" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>35</v>
       </c>
@@ -31069,7 +31069,7 @@
         <v>6.1207284034862104</v>
       </c>
     </row>
-    <row r="40" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>40</v>
       </c>
@@ -31257,7 +31257,7 @@
         <v>3.07126961253168E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>45</v>
       </c>
@@ -31445,7 +31445,7 @@
         <v>0.27874703435405801</v>
       </c>
     </row>
-    <row r="42" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>50</v>
       </c>
@@ -31633,7 +31633,7 @@
         <v>0.58850420329409303</v>
       </c>
     </row>
-    <row r="43" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>55</v>
       </c>
@@ -31821,7 +31821,7 @@
         <v>0.96684229524668597</v>
       </c>
     </row>
-    <row r="44" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>60</v>
       </c>
@@ -32009,7 +32009,7 @@
         <v>1.4206194025130801</v>
       </c>
     </row>
-    <row r="45" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>65</v>
       </c>
@@ -32197,7 +32197,7 @@
         <v>1.9566936173945599</v>
       </c>
     </row>
-    <row r="46" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>70</v>
       </c>
@@ -32385,7 +32385,7 @@
         <v>2.5819230321923401</v>
       </c>
     </row>
-    <row r="47" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>75</v>
       </c>
@@ -32573,7 +32573,7 @@
         <v>3.3031657392077101</v>
       </c>
     </row>
-    <row r="48" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>80</v>
       </c>
@@ -32761,7 +32761,7 @@
         <v>4.1272798307418999</v>
       </c>
     </row>
-    <row r="49" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>85</v>
       </c>
@@ -32949,7 +32949,7 @@
         <v>5.0611233990961804</v>
       </c>
     </row>
-    <row r="50" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>90</v>
       </c>
@@ -33137,7 +33137,7 @@
         <v>6.1115545365718003</v>
       </c>
     </row>
-    <row r="51" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>95</v>
       </c>
@@ -33325,7 +33325,7 @@
         <v>1.00224602829044</v>
       </c>
     </row>
-    <row r="52" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>100</v>
       </c>
@@ -33513,7 +33513,7 @@
         <v>2.3064265809125102</v>
       </c>
     </row>
-    <row r="53" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>105</v>
       </c>
@@ -33701,7 +33701,7 @@
         <v>3.7477689795596998</v>
       </c>
     </row>
-    <row r="54" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>110</v>
       </c>
@@ -33889,7 +33889,7 @@
         <v>5.3331313165332599</v>
       </c>
     </row>
-    <row r="55" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>115</v>
       </c>
@@ -34077,7 +34077,7 @@
         <v>0.78618637695481697</v>
       </c>
     </row>
-    <row r="56" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>120</v>
       </c>
@@ -34265,7 +34265,7 @@
         <v>2.6801628674848499</v>
       </c>
     </row>
-    <row r="57" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>125</v>
       </c>
@@ -34453,7 +34453,7 @@
         <v>4.7387335732450602</v>
       </c>
     </row>
-    <row r="58" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>130</v>
       </c>
@@ -34641,7 +34641,7 @@
         <v>0.685571279357028</v>
       </c>
     </row>
-    <row r="59" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>135</v>
       </c>
@@ -34829,7 +34829,7 @@
         <v>3.0939046924812099</v>
       </c>
     </row>
-    <row r="60" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>140</v>
       </c>
@@ -35017,7 +35017,7 @@
         <v>5.6874065977393</v>
       </c>
     </row>
-    <row r="61" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>145</v>
       </c>
@@ -35205,7 +35205,7 @@
         <v>2.1897497802529702</v>
       </c>
     </row>
-    <row r="62" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>150</v>
       </c>
@@ -35405,15 +35405,15 @@
   <dimension ref="A1:BJ62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:BJ62"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.9296875" customWidth="1"/>
+    <col min="1" max="1" width="10.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" s="1" customFormat="1" ht="35.549999999999997" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:62" s="1" customFormat="1" ht="35.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -35601,7 +35601,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>-150</v>
       </c>
@@ -35789,7 +35789,7 @@
         <v>2.3561944901923502</v>
       </c>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>-145</v>
       </c>
@@ -35977,7 +35977,7 @@
         <v>0.21588464045366401</v>
       </c>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>-140</v>
       </c>
@@ -36165,7 +36165,7 @@
         <v>4.1206055129882699</v>
       </c>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>-135</v>
       </c>
@@ -36353,7 +36353,7 @@
         <v>1.51084458573826</v>
       </c>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>-130</v>
       </c>
@@ -36541,7 +36541,7 @@
         <v>4.9598305653640802</v>
       </c>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>-125</v>
       </c>
@@ -36729,7 +36729,7 @@
         <v>1.9080509298077999</v>
       </c>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>-120</v>
       </c>
@@ -36917,7 +36917,7 @@
         <v>4.9287343857298502</v>
       </c>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>-115</v>
       </c>
@@ -37105,7 +37105,7 @@
         <v>1.4623684110723201</v>
       </c>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>-110</v>
       </c>
@@ -37293,7 +37293,7 @@
         <v>4.0821817124956103</v>
       </c>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>-105</v>
       </c>
@@ -37481,7 +37481,7 @@
         <v>0.228661767941823</v>
       </c>
     </row>
-    <row r="12" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>-100</v>
       </c>
@@ -37669,7 +37669,7 @@
         <v>2.4750372840713899</v>
       </c>
     </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>-95</v>
       </c>
@@ -37857,7 +37857,7 @@
         <v>4.5449810460059803</v>
       </c>
     </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>-90</v>
       </c>
@@ -38045,7 +38045,7 @@
         <v>0.162165838867256</v>
       </c>
     </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>-85</v>
       </c>
@@ -38233,7 +38233,7 @@
         <v>1.8998203693156499</v>
       </c>
     </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>-80</v>
       </c>
@@ -38421,7 +38421,7 @@
         <v>3.48161742247283</v>
       </c>
     </row>
-    <row r="17" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>-75</v>
       </c>
@@ -38609,7 +38609,7 @@
         <v>4.9144150906400403</v>
       </c>
     </row>
-    <row r="18" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>-70</v>
       </c>
@@ -38797,7 +38797,7 @@
         <v>6.2050714661185502</v>
       </c>
     </row>
-    <row r="19" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>-65</v>
       </c>
@@ -38985,7 +38985,7 @@
         <v>1.07725933403003</v>
       </c>
     </row>
-    <row r="20" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>-60</v>
       </c>
@@ -39173,7 +39173,7 @@
         <v>2.1042074010349001</v>
       </c>
     </row>
-    <row r="21" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>-55</v>
       </c>
@@ -39361,7 +39361,7 @@
         <v>3.0095884522548402</v>
       </c>
     </row>
-    <row r="22" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>-50</v>
       </c>
@@ -39549,7 +39549,7 @@
         <v>3.80026057999109</v>
       </c>
     </row>
-    <row r="23" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>-45</v>
       </c>
@@ -39737,7 +39737,7 @@
         <v>4.4830818765449196</v>
       </c>
     </row>
-    <row r="24" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>-40</v>
       </c>
@@ -39925,7 +39925,7 @@
         <v>5.0649104342175697</v>
       </c>
     </row>
-    <row r="25" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>-35</v>
       </c>
@@ -40113,7 +40113,7 @@
         <v>5.5526043453103098</v>
       </c>
     </row>
-    <row r="26" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>-30</v>
       </c>
@@ -40301,7 +40301,7 @@
         <v>5.9530217021243796</v>
       </c>
     </row>
-    <row r="27" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>-25</v>
       </c>
@@ -40489,7 +40489,7 @@
         <v>6.27302059696106</v>
       </c>
     </row>
-    <row r="28" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>-20</v>
       </c>
@@ -40677,7 +40677,7 @@
         <v>0.23627381494199201</v>
       </c>
     </row>
-    <row r="29" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>-15</v>
       </c>
@@ -40865,7 +40865,7 @@
         <v>0.41601006272762597</v>
       </c>
     </row>
-    <row r="30" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>-10</v>
       </c>
@@ -41053,7 +41053,7 @@
         <v>0.53590212543961302</v>
       </c>
     </row>
-    <row r="31" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>-5</v>
       </c>
@@ -41241,7 +41241,7 @@
         <v>0.60280809537921298</v>
       </c>
     </row>
-    <row r="32" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0</v>
       </c>
@@ -41429,7 +41429,7 @@
         <v>0.62358606484769696</v>
       </c>
     </row>
-    <row r="33" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>5</v>
       </c>
@@ -41617,7 +41617,7 @@
         <v>0.60509412614630498</v>
       </c>
     </row>
-    <row r="34" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>10</v>
       </c>
@@ -41805,7 +41805,7 @@
         <v>0.55419037157629403</v>
       </c>
     </row>
-    <row r="35" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>15</v>
       </c>
@@ -41993,7 +41993,7 @@
         <v>0.477732893438919</v>
       </c>
     </row>
-    <row r="36" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>20</v>
       </c>
@@ -42181,7 +42181,7 @@
         <v>0.38257978403544302</v>
       </c>
     </row>
-    <row r="37" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>25</v>
       </c>
@@ -42369,7 +42369,7 @@
         <v>0.27558913566711102</v>
       </c>
     </row>
-    <row r="38" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>30</v>
       </c>
@@ -42557,7 +42557,7 @@
         <v>0.16361904063518301</v>
       </c>
     </row>
-    <row r="39" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>35</v>
       </c>
@@ -42745,7 +42745,7 @@
         <v>5.3527591240925397E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>40</v>
       </c>
@@ -42933,7 +42933,7 @@
         <v>6.2353581869651604</v>
       </c>
     </row>
-    <row r="41" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>45</v>
       </c>
@@ -43121,7 +43121,7 @@
         <v>6.1495983057499899</v>
       </c>
     </row>
-    <row r="42" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>50</v>
       </c>
@@ -43309,7 +43309,7 @@
         <v>6.0862913470762301</v>
       </c>
     </row>
-    <row r="43" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>55</v>
       </c>
@@ -43497,7 +43497,7 @@
         <v>6.0522954032451599</v>
       </c>
     </row>
-    <row r="44" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>60</v>
       </c>
@@ -43685,7 +43685,7 @@
         <v>6.0544685665580298</v>
       </c>
     </row>
-    <row r="45" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>65</v>
       </c>
@@ -43873,7 +43873,7 @@
         <v>6.0996689293160999</v>
       </c>
     </row>
-    <row r="46" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>70</v>
       </c>
@@ -44061,7 +44061,7 @@
         <v>6.1947545838206004</v>
       </c>
     </row>
-    <row r="47" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>75</v>
       </c>
@@ -44249,7 +44249,7 @@
         <v>6.3398315193232704E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>80</v>
       </c>
@@ -44437,7 +44437,7 @@
         <v>0.27882883009440801</v>
       </c>
     </row>
-    <row r="49" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>85</v>
       </c>
@@ -44625,7 +44625,7 @@
         <v>0.56471891364579496</v>
       </c>
     </row>
-    <row r="50" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>90</v>
       </c>
@@ -44813,7 +44813,7 @@
         <v>0.92792665814864295</v>
       </c>
     </row>
-    <row r="51" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>95</v>
       </c>
@@ -45001,7 +45001,7 @@
         <v>1.37531015590423</v>
       </c>
     </row>
-    <row r="52" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>100</v>
       </c>
@@ -45189,7 +45189,7 @@
         <v>1.91372749921379</v>
       </c>
     </row>
-    <row r="53" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>105</v>
       </c>
@@ -45377,7 +45377,7 @@
         <v>2.5500367803785902</v>
       </c>
     </row>
-    <row r="54" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>110</v>
       </c>
@@ -45565,7 +45565,7 @@
         <v>3.2910960916998802</v>
       </c>
     </row>
-    <row r="55" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>115</v>
       </c>
@@ -45753,7 +45753,7 @@
         <v>4.14376352547891</v>
       </c>
     </row>
-    <row r="56" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>120</v>
       </c>
@@ -45941,7 +45941,7 @@
         <v>5.1148971740169502</v>
       </c>
     </row>
-    <row r="57" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>125</v>
       </c>
@@ -46129,7 +46129,7 @@
         <v>6.2113551296152796</v>
       </c>
     </row>
-    <row r="58" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>130</v>
       </c>
@@ -46317,7 +46317,7 @@
         <v>1.1568101773955</v>
       </c>
     </row>
-    <row r="59" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>135</v>
       </c>
@@ -46505,7 +46505,7 @@
         <v>2.52449102401807</v>
       </c>
     </row>
-    <row r="60" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>140</v>
       </c>
@@ -46693,7 +46693,7 @@
         <v>4.03807045460466</v>
       </c>
     </row>
-    <row r="61" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>145</v>
       </c>
@@ -46881,7 +46881,7 @@
         <v>5.70440656145656</v>
       </c>
     </row>
-    <row r="62" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>150</v>
       </c>
